--- a/2015-2016/clases/computacion_aplicada_2/clase_3/practica_3.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/clase_3/practica_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -375,19 +375,19 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -714,7 +714,7 @@
   <dimension ref="B5:AP26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,56 +760,56 @@
       <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
       <c r="Q5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="7" t="s">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="6" t="s">
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6" t="s">
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6" t="s">
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -828,42 +828,42 @@
       <c r="H6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="3">
         <v>1200.3399999999999</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -882,42 +882,42 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="3">
         <v>1300.3499999999999</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -936,42 +936,42 @@
       <c r="H8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="3">
         <v>1400.36</v>
       </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -990,42 +990,42 @@
       <c r="H9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="3">
         <v>1500.37</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -1044,42 +1044,42 @@
       <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="3">
         <v>1600.38</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -1098,42 +1098,42 @@
       <c r="H11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="3">
         <v>1700.39</v>
       </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -1152,42 +1152,42 @@
       <c r="H12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="3">
         <v>1800.4</v>
       </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -1206,42 +1206,42 @@
       <c r="H13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="3">
         <v>1900.41</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -1260,42 +1260,42 @@
       <c r="H14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="3">
         <v>1300.1500000000001</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -1314,42 +1314,42 @@
       <c r="H15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="3">
         <v>1302.17</v>
       </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -1368,42 +1368,42 @@
       <c r="H16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="3">
         <v>1304.19</v>
       </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -1422,42 +1422,42 @@
       <c r="H17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="3">
         <v>1306.21</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -1476,42 +1476,42 @@
       <c r="H18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="3">
         <v>1308.23</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
@@ -1530,42 +1530,42 @@
       <c r="H19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="3">
         <v>1310.25</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -1584,42 +1584,42 @@
       <c r="H20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
       <c r="Q20" s="3">
         <v>1312.27</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
@@ -1638,42 +1638,42 @@
       <c r="H21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
       <c r="Q21" s="3">
         <v>1314.29</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
@@ -1692,42 +1692,42 @@
       <c r="H22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
       <c r="Q22" s="3">
         <v>1316.31</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
@@ -1746,42 +1746,42 @@
       <c r="H23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
       <c r="Q23" s="3">
         <v>1318.33</v>
       </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
@@ -1800,42 +1800,42 @@
       <c r="H24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="3">
         <v>1320.35</v>
       </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
@@ -1854,42 +1854,42 @@
       <c r="H25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
       <c r="Q25" s="3">
         <v>1322.37</v>
       </c>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
@@ -1908,36 +1908,116 @@
       <c r="H26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="AJ25:AP25"/>
+    <mergeCell ref="AJ20:AP20"/>
+    <mergeCell ref="AJ21:AP21"/>
+    <mergeCell ref="AJ22:AP22"/>
+    <mergeCell ref="AJ23:AP23"/>
+    <mergeCell ref="AJ24:AP24"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="AJ5:AP5"/>
+    <mergeCell ref="AJ6:AP6"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="AJ9:AP9"/>
+    <mergeCell ref="AJ10:AP10"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="AJ12:AP12"/>
+    <mergeCell ref="AJ13:AP13"/>
+    <mergeCell ref="AJ14:AP14"/>
+    <mergeCell ref="AJ15:AP15"/>
+    <mergeCell ref="AJ16:AP16"/>
+    <mergeCell ref="AJ17:AP17"/>
+    <mergeCell ref="AJ18:AP18"/>
+    <mergeCell ref="AJ19:AP19"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R20:U20"/>
     <mergeCell ref="R21:U21"/>
@@ -1962,108 +2042,28 @@
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="N23:P23"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AJ25:AP25"/>
-    <mergeCell ref="AJ20:AP20"/>
-    <mergeCell ref="AJ21:AP21"/>
-    <mergeCell ref="AJ22:AP22"/>
-    <mergeCell ref="AJ23:AP23"/>
-    <mergeCell ref="AJ24:AP24"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="AJ5:AP5"/>
-    <mergeCell ref="AJ6:AP6"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="AJ9:AP9"/>
-    <mergeCell ref="AJ10:AP10"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="AJ12:AP12"/>
-    <mergeCell ref="AJ13:AP13"/>
-    <mergeCell ref="AJ14:AP14"/>
-    <mergeCell ref="AJ15:AP15"/>
-    <mergeCell ref="AJ16:AP16"/>
-    <mergeCell ref="AJ17:AP17"/>
-    <mergeCell ref="AJ18:AP18"/>
-    <mergeCell ref="AJ19:AP19"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2072,12 +2072,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>CHAR(64)</f>
+        <v>@</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f>CONCATENATE("A","B")</f>
+        <v>AB</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f>DOLLAR(4)</f>
+        <v>$4.00</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="b">
+        <f>EXACT("mario","mario")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>FIND("s","ascender")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>FIXED(23.3,2)</f>
+        <v>23.30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f>TRIM("     todo     ")</f>
+        <v>todo</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SEARCH("R","MARIO")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f>LEFT("varones","3")</f>
+        <v>var</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f>RIGHT("todo","2")</f>
+        <v>do</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>LEN(TRIM("todo "))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f>CLEAN("     todo     ")</f>
+        <v xml:space="preserve">     todo     </v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>UPPER("todo")</f>
+        <v>TODO</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f>LOWER("TODO")</f>
+        <v>todo</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f>PROPER("todo")</f>
+        <v>Todo</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f>REPLACE("bicicletarotas erika",10,5,"nueva")</f>
+        <v>bicicletanueva erika</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="str">
+        <f>SUBSTITUTE("liga quito y emelec de  quito","quito","guayaquil",2)</f>
+        <v>liga quito y emelec de  guayaquil</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>REPT("uno",3)</f>
+        <v>unounouno</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>TEXT(3,"$0.00")</f>
+        <v>$3.00</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>VALUE("$300.23")</f>
+        <v>300.23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
